--- a/模板/考勤导入模板.xlsx
+++ b/模板/考勤导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\xxx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13B83AD-F1AC-4B3C-97DD-2BCA3FAF43ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF8FD7F-ABC3-4922-8887-8596315593B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2160" windowWidth="18340" windowHeight="10060" xr2:uid="{AE55BCCD-231C-41C2-8377-191A085042D6}"/>
+    <workbookView xWindow="1690" yWindow="2740" windowWidth="18340" windowHeight="10060" xr2:uid="{AE55BCCD-231C-41C2-8377-191A085042D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,11 +60,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123123123123123123</t>
+    <t>撒旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124214214124121231</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -487,16 +487,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>43602</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.76388888888888884</v>
+        <v>43576</v>
       </c>
     </row>
   </sheetData>

--- a/模板/考勤导入模板.xlsx
+++ b/模板/考勤导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF8FD7F-ABC3-4922-8887-8596315593B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A156D0-8A58-4E8D-AF8F-AD8EBB7C35A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1690" yWindow="2740" windowWidth="18340" windowHeight="10060" xr2:uid="{AE55BCCD-231C-41C2-8377-191A085042D6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="9">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,11 +60,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>撒旦</t>
+    <t>丁维群</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>124214214124121231</t>
+    <t>532124197909222320</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6BE99C-ABFA-4B46-B7BD-30CCC949694D}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -480,7 +480,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -489,11 +489,521 @@
       <c r="C2" s="2">
         <v>43576</v>
       </c>
+      <c r="D2" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43577</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43578</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43579</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43580</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43581</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43606</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43608</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43609</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43576</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43577</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43578</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43579</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43580</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43581</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43606</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43608</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43609</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 E1:E1048576 F1:G1048576" xr:uid="{AB35C83F-4268-4045-B60F-634ACE8EDB93}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:G1048576" xr:uid="{AB35C83F-4268-4045-B60F-634ACE8EDB93}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
@@ -501,11 +1011,14 @@
       <formula1>25569</formula1>
       <formula2>2958443</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{457CD372-9B4A-4143-9CC9-126DA03860F9}">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B39 B23 B41:B1048576 B25 B27 B29 B31 B33 B35 B37 B3 B5 B7 B9 B11 B13 B15 B17 B19 B21" xr:uid="{457CD372-9B4A-4143-9CC9-126DA03860F9}">
       <formula1>18</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://120.78.163.106:8080/html/member/view.html?id=2&amp;Name=%E4%B8%81%E7%BB%B4%E7%BE%A4" xr:uid="{027B0BA0-E1B6-46C8-9D0D-A972C83686D3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/模板/考勤导入模板.xlsx
+++ b/模板/考勤导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A156D0-8A58-4E8D-AF8F-AD8EBB7C35A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8047C3B5-B9AC-4C02-895E-400CBA6DA1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1690" yWindow="2740" windowWidth="18340" windowHeight="10060" xr2:uid="{AE55BCCD-231C-41C2-8377-191A085042D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{AE55BCCD-231C-41C2-8377-191A085042D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,11 +60,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>丁维群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>532124197909222320</t>
+    <t>510521197302150399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张学阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -481,13 +481,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="2">
-        <v>43576</v>
+        <v>43891</v>
       </c>
       <c r="D2" s="1">
         <v>0.35416666666666669</v>
@@ -504,13 +504,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="2">
-        <v>43577</v>
+        <v>43891</v>
       </c>
       <c r="D3" s="1">
         <v>0.35416666666666669</v>
@@ -526,451 +526,109 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43578</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.27777777777777779</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>43579</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.27777777777777779</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>43580</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.27777777777777779</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43581</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.27777777777777779</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>43606</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.27777777777777779</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>43607</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.27777777777777779</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>43608</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.27777777777777779</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <v>43609</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.27777777777777779</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2">
-        <v>43576</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.27777777777777779</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2">
-        <v>43577</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.27777777777777779</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2">
-        <v>43578</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.27777777777777779</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2">
-        <v>43579</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.27777777777777779</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2">
-        <v>43580</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.27777777777777779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2">
-        <v>43581</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.27777777777777779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2">
-        <v>43606</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.27777777777777779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2">
-        <v>43607</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.27777777777777779</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2">
-        <v>43608</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.27777777777777779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2">
-        <v>43609</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.27777777777777779</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/模板/考勤导入模板.xlsx
+++ b/模板/考勤导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8047C3B5-B9AC-4C02-895E-400CBA6DA1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9AD43F-DA0B-42DE-9894-8825B952F896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{AE55BCCD-231C-41C2-8377-191A085042D6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>张学阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,235 +445,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6BE99C-ABFA-4B46-B7BD-30CCC949694D}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.6640625" style="1"/>
-    <col min="8" max="8" width="9.4140625" customWidth="1"/>
+    <col min="2" max="3" width="19.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.6640625" style="1"/>
+    <col min="9" max="9" width="9.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>43891</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.10416666666666667</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>43891</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.10416666666666667</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:G1048576" xr:uid="{AB35C83F-4268-4045-B60F-634ACE8EDB93}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:H1048576" xr:uid="{AB35C83F-4268-4045-B60F-634ACE8EDB93}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{9DCD512E-B121-44E2-82F4-0F09A3EB809B}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{9DCD512E-B121-44E2-82F4-0F09A3EB809B}">
       <formula1>25569</formula1>
       <formula2>2958443</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B39 B23 B41:B1048576 B25 B27 B29 B31 B33 B35 B37 B3 B5 B7 B9 B11 B13 B15 B17 B19 B21" xr:uid="{457CD372-9B4A-4143-9CC9-126DA03860F9}">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:C21 B39:C39 B23:C23 B41:C1048576 B25:C25 B27:C27 B29:C29 B31:C31 B33:C33 B35:C35 B37:C37 B3:C3 B5:C5 B7:C7 B9:C9 B11:C11 B13:C13 B15:C15 B17:C17 B19:C19 B1" xr:uid="{457CD372-9B4A-4143-9CC9-126DA03860F9}">
       <formula1>18</formula1>
     </dataValidation>
   </dataValidations>
